--- a/操作excel/工人工资表格/res.xlsx
+++ b/操作excel/工人工资表格/res.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="总汇" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总汇" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="外包1(赵秀柱)" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -41,7 +42,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -50,12 +51,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="008DB4E2"/>
+        <fgColor rgb="00B8CCE4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFC0CB"/>
+        <fgColor rgb="00F2DCDB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F79646"/>
       </patternFill>
     </fill>
   </fills>
@@ -123,7 +129,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -675,4 +681,64 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AI4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="4.6640625" customWidth="1" min="1" max="1"/>
+    <col width="4.83203125" customWidth="1" min="2" max="2"/>
+    <col width="4.6640625" customWidth="1" min="3" max="3"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
+    <col width="13" customWidth="1" min="5" max="5"/>
+    <col width="13" customWidth="1" min="6" max="6"/>
+    <col width="13" customWidth="1" min="7" max="7"/>
+    <col width="13" customWidth="1" min="8" max="8"/>
+    <col width="13" customWidth="1" min="9" max="9"/>
+    <col width="13" customWidth="1" min="10" max="10"/>
+    <col width="13" customWidth="1" min="11" max="11"/>
+    <col width="13" customWidth="1" min="12" max="12"/>
+    <col width="13" customWidth="1" min="13" max="13"/>
+    <col width="13" customWidth="1" min="14" max="14"/>
+    <col width="13" customWidth="1" min="15" max="15"/>
+    <col width="13" customWidth="1" min="16" max="16"/>
+    <col width="13" customWidth="1" min="17" max="17"/>
+    <col width="13" customWidth="1" min="18" max="18"/>
+    <col width="13" customWidth="1" min="19" max="19"/>
+    <col width="13" customWidth="1" min="20" max="20"/>
+    <col width="13" customWidth="1" min="21" max="21"/>
+    <col width="13" customWidth="1" min="22" max="22"/>
+    <col width="13" customWidth="1" min="23" max="23"/>
+    <col width="13" customWidth="1" min="24" max="24"/>
+    <col width="13" customWidth="1" min="25" max="25"/>
+    <col width="13" customWidth="1" min="26" max="26"/>
+    <col width="13" customWidth="1" min="27" max="27"/>
+    <col width="13" customWidth="1" min="28" max="28"/>
+    <col width="13" customWidth="1" min="29" max="29"/>
+    <col width="13" customWidth="1" min="30" max="30"/>
+    <col width="13" customWidth="1" min="31" max="31"/>
+    <col width="13" customWidth="1" min="32" max="32"/>
+    <col width="13" customWidth="1" min="33" max="33"/>
+    <col width="13" customWidth="1" min="34" max="34"/>
+    <col width="13" customWidth="1" min="35" max="35"/>
+  </cols>
+  <sheetData>
+    <row r="1"/>
+    <row r="2"/>
+    <row r="3"/>
+    <row r="4"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/操作excel/工人工资表格/res.xlsx
+++ b/操作excel/工人工资表格/res.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="26595" windowHeight="12015" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="29820" windowHeight="14640" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="总汇" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="外包1(赵秀柱)" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="外包2(徐忠超)" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="外包3(葛月梅)" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="外包4(王海江)" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="现场临时工班组" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总汇" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="外包1(赵秀柱)" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="外包2(徐忠超)" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="外包3(葛月梅)" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="外包4(王海江)" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="现场临时工班组" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -54,21 +54,22 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -85,22 +86,6 @@
       <color rgb="FF0000FF"/>
       <sz val="11"/>
       <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -136,10 +121,9 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -154,14 +138,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
       <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -169,15 +145,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -192,6 +160,38 @@
       <name val="宋体"/>
       <charset val="0"/>
       <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -224,7 +224,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -236,43 +260,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,13 +284,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,7 +320,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,13 +380,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,67 +404,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,32 +457,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,11 +484,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,11 +529,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -674,148 +674,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -880,54 +880,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1450,22 +1450,17 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="3.66666666666667" defaultRowHeight="10.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="3.66964285714286" defaultRowHeight="8.800000000000001"/>
   <cols>
     <col width="9.125" customWidth="1" style="10" min="1" max="1"/>
-    <col width="4.625" customWidth="1" style="10" min="2" max="2"/>
-    <col width="4.875" customWidth="1" style="10" min="3" max="3"/>
-    <col width="5.75" customWidth="1" style="10" min="4" max="4"/>
-    <col width="6" customWidth="1" style="10" min="5" max="5"/>
-    <col width="7.75" customWidth="1" style="10" min="6" max="6"/>
-    <col width="4.125" customWidth="1" style="10" min="7" max="32"/>
-    <col width="5.33333333333333" customWidth="1" style="10" min="33" max="33"/>
-    <col width="5.66666666666667" customWidth="1" style="10" min="34" max="34"/>
-    <col width="9.33333333333333" customWidth="1" style="10" min="35" max="35"/>
-    <col width="3.66666666666667" customWidth="1" style="10" min="36" max="37"/>
+    <col width="4.64285714285714" customWidth="1" style="10" min="2" max="32"/>
+    <col width="5.33035714285714" customWidth="1" style="10" min="33" max="33"/>
+    <col width="5.66964285714286" customWidth="1" style="10" min="34" max="34"/>
+    <col width="9.330357142857141" customWidth="1" style="10" min="35" max="35"/>
+    <col width="3.66964285714286" customWidth="1" style="10" min="36" max="37"/>
     <col width="19.5" customWidth="1" style="10" min="38" max="38"/>
-    <col width="3.66666666666667" customWidth="1" style="10" min="39" max="39"/>
-    <col width="3.66666666666667" customWidth="1" style="10" min="40" max="16384"/>
+    <col width="3.66964285714286" customWidth="1" style="10" min="39" max="39"/>
+    <col width="3.66964285714286" customWidth="1" style="10" min="40" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" s="11">
@@ -3770,22 +3765,17 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="3.66666666666667" defaultRowHeight="10.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="3.66964285714286" defaultRowHeight="8.800000000000001"/>
   <cols>
     <col width="9.125" customWidth="1" style="10" min="1" max="1"/>
-    <col width="4.625" customWidth="1" style="10" min="2" max="2"/>
-    <col width="4.875" customWidth="1" style="10" min="3" max="3"/>
-    <col width="5.75" customWidth="1" style="10" min="4" max="4"/>
-    <col width="6" customWidth="1" style="10" min="5" max="5"/>
-    <col width="7.75" customWidth="1" style="10" min="6" max="6"/>
-    <col width="4.125" customWidth="1" style="10" min="7" max="32"/>
-    <col width="5.33333333333333" customWidth="1" style="10" min="33" max="33"/>
-    <col width="5.66666666666667" customWidth="1" style="10" min="34" max="34"/>
-    <col width="9.33333333333333" customWidth="1" style="10" min="35" max="35"/>
-    <col width="3.66666666666667" customWidth="1" style="10" min="36" max="37"/>
+    <col width="4.64285714285714" customWidth="1" style="10" min="2" max="32"/>
+    <col width="5.33035714285714" customWidth="1" style="10" min="33" max="33"/>
+    <col width="5.66964285714286" customWidth="1" style="10" min="34" max="34"/>
+    <col width="9.330357142857141" customWidth="1" style="10" min="35" max="35"/>
+    <col width="3.66964285714286" customWidth="1" style="10" min="36" max="37"/>
     <col width="19.5" customWidth="1" style="10" min="38" max="38"/>
-    <col width="3.66666666666667" customWidth="1" style="10" min="39" max="39"/>
-    <col width="3.66666666666667" customWidth="1" style="10" min="40" max="16384"/>
+    <col width="3.66964285714286" customWidth="1" style="10" min="39" max="39"/>
+    <col width="3.66964285714286" customWidth="1" style="10" min="40" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" s="11">
@@ -6602,22 +6592,17 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="3.66666666666667" defaultRowHeight="10.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="3.66964285714286" defaultRowHeight="8.800000000000001"/>
   <cols>
     <col width="9.125" customWidth="1" style="10" min="1" max="1"/>
-    <col width="4.625" customWidth="1" style="10" min="2" max="2"/>
-    <col width="4.875" customWidth="1" style="10" min="3" max="3"/>
-    <col width="5.75" customWidth="1" style="10" min="4" max="4"/>
-    <col width="6" customWidth="1" style="10" min="5" max="5"/>
-    <col width="7.75" customWidth="1" style="10" min="6" max="6"/>
-    <col width="4.125" customWidth="1" style="10" min="7" max="32"/>
-    <col width="5.33333333333333" customWidth="1" style="10" min="33" max="33"/>
-    <col width="5.66666666666667" customWidth="1" style="10" min="34" max="34"/>
-    <col width="9.33333333333333" customWidth="1" style="10" min="35" max="35"/>
-    <col width="3.66666666666667" customWidth="1" style="10" min="36" max="37"/>
+    <col width="4.64285714285714" customWidth="1" style="10" min="2" max="32"/>
+    <col width="5.33035714285714" customWidth="1" style="10" min="33" max="33"/>
+    <col width="5.66964285714286" customWidth="1" style="10" min="34" max="34"/>
+    <col width="9.330357142857141" customWidth="1" style="10" min="35" max="35"/>
+    <col width="3.66964285714286" customWidth="1" style="10" min="36" max="37"/>
     <col width="19.5" customWidth="1" style="10" min="38" max="38"/>
-    <col width="3.66666666666667" customWidth="1" style="10" min="39" max="39"/>
-    <col width="3.66666666666667" customWidth="1" style="10" min="40" max="16384"/>
+    <col width="3.66964285714286" customWidth="1" style="10" min="39" max="39"/>
+    <col width="3.66964285714286" customWidth="1" style="10" min="40" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" s="11">
@@ -8815,22 +8800,17 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="3.66666666666667" defaultRowHeight="10.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="3.66964285714286" defaultRowHeight="8.800000000000001"/>
   <cols>
     <col width="9.125" customWidth="1" style="10" min="1" max="1"/>
-    <col width="4.625" customWidth="1" style="10" min="2" max="2"/>
-    <col width="4.875" customWidth="1" style="10" min="3" max="3"/>
-    <col width="5.75" customWidth="1" style="10" min="4" max="4"/>
-    <col width="6" customWidth="1" style="10" min="5" max="5"/>
-    <col width="7.75" customWidth="1" style="10" min="6" max="6"/>
-    <col width="4.125" customWidth="1" style="10" min="7" max="32"/>
-    <col width="5.33333333333333" customWidth="1" style="10" min="33" max="33"/>
-    <col width="5.66666666666667" customWidth="1" style="10" min="34" max="34"/>
-    <col width="9.33333333333333" customWidth="1" style="10" min="35" max="35"/>
-    <col width="3.66666666666667" customWidth="1" style="10" min="36" max="37"/>
+    <col width="4.64285714285714" customWidth="1" style="10" min="2" max="32"/>
+    <col width="5.33035714285714" customWidth="1" style="10" min="33" max="33"/>
+    <col width="5.66964285714286" customWidth="1" style="10" min="34" max="34"/>
+    <col width="9.330357142857141" customWidth="1" style="10" min="35" max="35"/>
+    <col width="3.66964285714286" customWidth="1" style="10" min="36" max="37"/>
     <col width="19.5" customWidth="1" style="10" min="38" max="38"/>
-    <col width="3.66666666666667" customWidth="1" style="10" min="39" max="39"/>
-    <col width="3.66666666666667" customWidth="1" style="10" min="40" max="16384"/>
+    <col width="3.66964285714286" customWidth="1" style="10" min="39" max="39"/>
+    <col width="3.66964285714286" customWidth="1" style="10" min="40" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" s="11">
@@ -15022,22 +15002,17 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="3.66666666666667" defaultRowHeight="10.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="3.66964285714286" defaultRowHeight="8.800000000000001"/>
   <cols>
     <col width="9.125" customWidth="1" style="10" min="1" max="1"/>
-    <col width="4.625" customWidth="1" style="10" min="2" max="2"/>
-    <col width="4.875" customWidth="1" style="10" min="3" max="3"/>
-    <col width="5.75" customWidth="1" style="10" min="4" max="4"/>
-    <col width="6" customWidth="1" style="10" min="5" max="5"/>
-    <col width="7.75" customWidth="1" style="10" min="6" max="6"/>
-    <col width="4.125" customWidth="1" style="10" min="7" max="32"/>
-    <col width="5.33333333333333" customWidth="1" style="10" min="33" max="33"/>
-    <col width="5.66666666666667" customWidth="1" style="10" min="34" max="34"/>
-    <col width="9.33333333333333" customWidth="1" style="10" min="35" max="35"/>
-    <col width="3.66666666666667" customWidth="1" style="10" min="36" max="37"/>
+    <col width="4.64285714285714" customWidth="1" style="10" min="2" max="32"/>
+    <col width="5.33035714285714" customWidth="1" style="10" min="33" max="33"/>
+    <col width="5.66964285714286" customWidth="1" style="10" min="34" max="34"/>
+    <col width="9.330357142857141" customWidth="1" style="10" min="35" max="35"/>
+    <col width="3.66964285714286" customWidth="1" style="10" min="36" max="37"/>
     <col width="19.5" customWidth="1" style="10" min="38" max="38"/>
-    <col width="3.66666666666667" customWidth="1" style="10" min="39" max="39"/>
-    <col width="3.66666666666667" customWidth="1" style="10" min="40" max="16384"/>
+    <col width="3.66964285714286" customWidth="1" style="10" min="39" max="39"/>
+    <col width="3.66964285714286" customWidth="1" style="10" min="40" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" s="11">
